--- a/docs/data/example-model.xlsx
+++ b/docs/data/example-model.xlsx
@@ -2,14 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-19080" yWindow="-19200" windowWidth="25040" windowHeight="14900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="attributes" sheetId="1" r:id="rId1"/>
     <sheet name="entities" sheetId="2" r:id="rId2"/>
     <sheet name="packages" sheetId="3" r:id="rId3"/>
+    <sheet name="project_subjects" sheetId="4" r:id="rId4"/>
+    <sheet name="project_biobanks" sheetId="5" r:id="rId5"/>
+    <sheet name="project_sex" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="71">
   <si>
     <t>entity</t>
   </si>
@@ -44,9 +47,6 @@
     <t>idAttribute</t>
   </si>
   <si>
-    <t>enumOptions</t>
-  </si>
-  <si>
     <t>labelAttribute</t>
   </si>
   <si>
@@ -59,9 +59,6 @@
     <t>partOfAttribute</t>
   </si>
   <si>
-    <t>expression</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -110,36 +107,18 @@
     <t>age</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
     <t>Sex</t>
   </si>
   <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>male,female</t>
-  </si>
-  <si>
     <t>smoking</t>
   </si>
   <si>
     <t>Ever smoked</t>
   </si>
   <si>
-    <t>wbcc</t>
-  </si>
-  <si>
-    <t>Whole bloodcell count</t>
-  </si>
-  <si>
     <t>wgs</t>
   </si>
   <si>
@@ -161,9 +140,6 @@
     <t>Filters</t>
   </si>
   <si>
-    <t>age_years</t>
-  </si>
-  <si>
     <t>Age in years</t>
   </si>
   <si>
@@ -191,21 +167,12 @@
     <t>Description</t>
   </si>
   <si>
-    <t>project_samples</t>
-  </si>
-  <si>
     <t>project</t>
   </si>
   <si>
     <t>Project</t>
   </si>
   <si>
-    <t>Samples</t>
-  </si>
-  <si>
-    <t>samples</t>
-  </si>
-  <si>
     <t>biobanks</t>
   </si>
   <si>
@@ -213,6 +180,63 @@
   </si>
   <si>
     <t>package</t>
+  </si>
+  <si>
+    <t>project_subjects</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>subjects</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>cell_counts</t>
+  </si>
+  <si>
+    <t>Cell counts</t>
+  </si>
+  <si>
+    <t>BB1</t>
+  </si>
+  <si>
+    <t>BB2</t>
+  </si>
+  <si>
+    <t>BB3</t>
+  </si>
+  <si>
+    <t>Biobank 1</t>
+  </si>
+  <si>
+    <t>Biobank 2</t>
+  </si>
+  <si>
+    <t>Biobank 3</t>
+  </si>
+  <si>
+    <t>This biobank contains a very detailed pretty description</t>
+  </si>
+  <si>
+    <t>A description however is not required</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>project_sex</t>
   </si>
 </sst>
 </file>
@@ -225,6 +249,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,8 +286,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -289,7 +368,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -301,6 +380,33 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -312,6 +418,33 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,18 +774,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,551 +821,568 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" t="s">
-        <v>15</v>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1244,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1260,34 +1414,44 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1316,10 +1480,340 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="A1:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>58</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>33</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="G36:H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
